--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>次数 $i$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,30 @@
   </si>
   <si>
     <t>$-$0.021$\pm$0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐差次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_5-r_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_6-r_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_7-r_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_8-r_3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_9-r_4$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:C30"/>
     </sheetView>
   </sheetViews>
@@ -1098,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1628,6 +1652,74 @@
         <v>63</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1637,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A31" sqref="A31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2127,6 +2219,88 @@
         <v>55</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>次数 $i$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,22 @@
   </si>
   <si>
     <t>$r_9-r_4$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐差长度 $\delta L/mm$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_3-r_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_4-r_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r_5-r_2$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1114,6 +1130,36 @@
         <v>70</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -682,7 +682,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1775,13 +1775,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="13" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2086,6 +2089,30 @@
         <f>A13-B16</f>
         <v>0.32800000000000007</v>
       </c>
+      <c r="D13">
+        <f>AVERAGE(B20:K20)</f>
+        <v>0.315</v>
+      </c>
+      <c r="E13">
+        <f>D13-B16</f>
+        <v>0.318</v>
+      </c>
+      <c r="H13">
+        <f>_xlfn.STDEV.P(B3:B11)</f>
+        <v>0.15963693375056986</v>
+      </c>
+      <c r="I13">
+        <f>_xlfn.STDEV.S(B3:B11)</f>
+        <v>0.16932053757428339</v>
+      </c>
+      <c r="J13">
+        <f>_xlfn.STDEV.P(B20:K20)</f>
+        <v>1.6124515496597112E-3</v>
+      </c>
+      <c r="K13">
+        <f>J13/3</f>
+        <v>5.3748384988657036E-4</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -2103,7 +2130,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2138,7 +2165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2173,7 +2200,49 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <f>B19-0.01</f>
+        <v>0.315</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:K20" si="2">C19-0.01</f>
+        <v>0.316</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.312</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>0.316</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.312</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.316</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.316</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2207,8 +2276,11 @@
       <c r="K22" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M22" s="4">
+        <v>16810408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2314,11 @@
       <c r="K23" s="5">
         <v>200.07</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M23" s="5">
+        <v>317453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2254,7 +2329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2265,7 +2340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2285,7 +2360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
